--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.wastewater.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.wastewater.4.0.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique name for each sample (used as an ID)</t>
+          <t>The sample name is a name that you choose for the sample, it works as an ID.  Each sample name must be unique in samples submitted from a submission account.</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique title for each sample</t>
+          <t>Sample title should be short and informative. Each sample title must be unique in a submission.  Examples: 1) Escherichia coli O104:H4 str. C227-11 clinical isolate 2010_333_NC-6;  2) CD8+ T cells from female TSG6-knockout BALB/c mouse;  3) Human metagenome isolated from urine of healthy female.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Brief description</t>
+          <t>A brief description for the sample.</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Organism name in the NCBI Taxonomy database</t>
+          <t>The most descriptive organism name for this sample (to the species, if relevant) in the NCBI Taxonomy database, http://www.ncbi.nlm.nih.gov/taxonomy If it is not in the database, provide as much information about the organism as possible and the DDBJ staff apply a new organism name to NCBI Taxonomy.</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI Taxonomy identifier</t>
+          <t>NCBI Taxonomy identifier. This is appropriate for individual organisms, some metagenomes and environmental samples (http://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=12908&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock).  If it is not in the database, enter a tentative ID (e.g., 1). The DDBJ staff apply a new organism name to NCBI Taxonomy, and then the tentative ID is replaced by an assigned TaxID.</t>
         </r>
       </text>
     </comment>
@@ -121,7 +121,7 @@
             <family val="2"/>
           </rPr>
           <t>Organism group
-Identification of the specific individual</t>
+Identification or description of the specific individual from which this sample was obtained</t>
         </r>
       </text>
     </comment>
@@ -135,7 +135,21 @@
             <family val="2"/>
           </rPr>
           <t>Organism group
-Cultivar name</t>
+Cultivar name - cultivated variety of plant</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Organism group
+a population within a given species displaying genetically based, phenotypic traits that reflect adaptation to a local habitat, e.g., Columbia</t>
         </r>
       </text>
     </comment>
@@ -148,7 +162,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of sampling (eg, 2008-01-23, 2008-01)</t>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
         </r>
       </text>
     </comment>
@@ -161,7 +175,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the broad ecological context of a sample</t>
+          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -174,7 +188,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the local environment.</t>
+          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -187,7 +201,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event.</t>
+          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -200,7 +214,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Geographical origin of the sample (eg, "Japan:Kanagawa, Hakone, Lake Ashi")</t>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
         </r>
       </text>
     </comment>
@@ -213,7 +227,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Pubmed ID, DOI or URL of publication for isolation and growth condition specifications of the organism/material</t>
+          <t>Publication reference in the form of pubmed ID, DOI or URL for isolation and growth condition specifications of the organism/material</t>
         </r>
       </text>
     </comment>
@@ -226,7 +240,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The geographical coordinates of the location in decimal degrees latitude and longitude (eg, 47.94 N 28.12 W)</t>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
         </r>
       </text>
     </comment>
@@ -265,7 +279,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Free-living or from host</t>
+          <t>Free-living or from host (define relationship)</t>
         </r>
       </text>
     </comment>
@@ -278,7 +292,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>list of chemical compounds administered to the host or site where sampling occurred, and when</t>
+          <t>list of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, N fertilizer, air filter); can include multiple compounds. For Chemical Entities of Biological Interest ontology (CHEBI) (v1.72), please see http://bioportal.bioontology.org/visualize/44603</t>
         </r>
       </text>
     </comment>
@@ -304,7 +318,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Depth is defined as the vertical distance below local surface. Depth can be reported as an interval for subsurface samples.</t>
+          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
         </r>
       </text>
     </comment>
@@ -330,7 +344,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>amount or concentration of substances</t>
+          <t>amount or concentration of substances such as paints, adhesives, mayonnaise, hair colorants, emulsified oils, etc.; can include multiple emulsion types</t>
         </r>
       </text>
     </comment>
@@ -356,7 +370,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>amount or concentration of substances such as hydrogen sulfide, carbon dioxide, methane, etc.</t>
+          <t>amount or concentration of substances such as hydrogen sulfide, carbon dioxide, methane, etc.; can include multiple substances</t>
         </r>
       </text>
     </comment>
@@ -382,7 +396,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of particles such as sand, grit</t>
+          <t>concentration of particles such as sand, grit, metal particles, ceramics, etc.; can include multiple particles</t>
         </r>
       </text>
     </comment>
@@ -395,7 +409,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample</t>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
         </r>
       </text>
     </comment>
@@ -434,7 +448,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of particles such as faeces, hairs etc.</t>
+          <t>concentration of particles such as faeces, hairs, food, vomit, paper fibers, plant material, humus, etc.</t>
         </r>
       </text>
     </comment>
@@ -447,7 +461,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count</t>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
         </r>
       </text>
     </comment>
@@ -473,7 +487,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred</t>
+          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
         </r>
       </text>
     </comment>
@@ -746,7 +760,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>unique identifier assigned to a material sample used</t>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
         </r>
       </text>
     </comment>
@@ -772,7 +786,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc</t>
+          <t>concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances</t>
         </r>
       </text>
     </comment>
@@ -785,7 +799,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>temperature of the sample</t>
+          <t>temperature of the sample at time of sampling</t>
         </r>
       </text>
     </comment>

--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.wastewater.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.wastewater.4.0.xlsx
@@ -362,6 +362,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -446,7 +449,7 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">

--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.wastewater.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.wastewater.4.0.xlsx
@@ -244,12 +244,636 @@
         </r>
       </text>
     </comment>
+    <comment ref="R15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>a measure of the relative oxygen-depletion effect of a waste contaminant</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Free-living or from host (define relationship)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>list of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, N fertilizer, air filter); can include multiple compounds. For Chemical Entities of Biological Interest ontology (CHEBI) (v1.72), please see http://bioportal.bioontology.org/visualize/44603</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>a measure of the relative oxygen-depletion effect of a waste contaminant</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>percentage of volatile solids removed from the anaerobic digestor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>amount or concentration of substances such as paints, adhesives, mayonnaise, hair colorants, emulsified oils, etc.; can include multiple emulsion types</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Plasmids that have significance phenotypic consequence</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>amount or concentration of substances such as hydrogen sulfide, carbon dioxide, methane, etc.; can include multiple substances</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>percentage of industrial effluents received by wastewater treatment plant</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of particles such as sand, grit, metal particles, ceramics, etc.; can include multiple particles</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>any other measurement performed or parameter collected, that is not listed here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of nitrate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of particles such as faeces, hairs, food, vomit, paper fibers, plant material, humus, etc.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>oxygenation status of sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pH measurement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of phosphate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the process of pre-treatment removes materials that can be easily collected from the raw wastewater</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the process to produce both a generally homogeneous liquid capable of being treated biologically and a sludge that can be separately treated or processed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>anaerobic digesters can be designed and engineered to operate using a number of different process configurations, as batch or continuous, mesophilic, high solid or low solid, and single stage or multistage</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Aerobic or anaerobic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Method or device employed for collecting sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Processing applied to the sample during or after isolation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>salinity of sample, i.e. measure of total salt concentration</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amount or size of sample (volume, mass or area) that was collected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>duration for which sample was stored</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>location at which sample was stored, usually name of a specific freezer/room</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature at which sample was stored, e.g. -80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the process for substantially degrading the biological content of the sewage</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>type of wastewater treatment plant as municipial or industrial</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the time activated sludge remains in reactor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>sodium concentration</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of substances such as ammonia, road-salt, sea-salt, cyanide, hydrogen sulfide, thiocyanates, thiosulfates, etc.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of substances such as urea, fruit sugars, soluble proteins, drugs, pharmaceuticals, etc.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature of the sample at time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the process providing a final treatment stage to raise the effluent quality before it is discharged to the receiving environment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total nitrogen content of the sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total amount or concentration of phosphate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Feeding position in food chain (eg., chemolithotroph)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the origin of wastewater such as human waste, rainfall, storm drains, etc.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIMARKS: specimen, wastewater; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -356,6 +980,150 @@
   </si>
   <si>
     <t>lat_lon</t>
+  </si>
+  <si>
+    <t>alkalinity</t>
+  </si>
+  <si>
+    <t>biochem_oxygen_dem</t>
+  </si>
+  <si>
+    <t>biotic_relationship</t>
+  </si>
+  <si>
+    <t>chem_administration</t>
+  </si>
+  <si>
+    <t>chem_oxygen_dem</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>efficiency_percent</t>
+  </si>
+  <si>
+    <t>emulsions</t>
+  </si>
+  <si>
+    <t>extrachrom_elements</t>
+  </si>
+  <si>
+    <t>gaseous_substances</t>
+  </si>
+  <si>
+    <t>indust_eff_percent</t>
+  </si>
+  <si>
+    <t>inorg_particles</t>
+  </si>
+  <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
+    <t>misc_param</t>
+  </si>
+  <si>
+    <t>nitrate</t>
+  </si>
+  <si>
+    <t>org_particles</t>
+  </si>
+  <si>
+    <t>organism_count</t>
+  </si>
+  <si>
+    <t>oxy_stat_samp</t>
+  </si>
+  <si>
+    <t>perturbation</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>phosphate</t>
+  </si>
+  <si>
+    <t>pre_treatment</t>
+  </si>
+  <si>
+    <t>primary_treatment</t>
+  </si>
+  <si>
+    <t>reactor_type</t>
+  </si>
+  <si>
+    <t>rel_to_oxygen</t>
+  </si>
+  <si>
+    <t>samp_collect_device</t>
+  </si>
+  <si>
+    <t>samp_mat_process</t>
+  </si>
+  <si>
+    <t>samp_salinity</t>
+  </si>
+  <si>
+    <t>samp_size</t>
+  </si>
+  <si>
+    <t>samp_store_dur</t>
+  </si>
+  <si>
+    <t>samp_store_loc</t>
+  </si>
+  <si>
+    <t>samp_store_temp</t>
+  </si>
+  <si>
+    <t>samp_vol_we_dna_ext</t>
+  </si>
+  <si>
+    <t>secondary_treatment</t>
+  </si>
+  <si>
+    <t>sewage_type</t>
+  </si>
+  <si>
+    <t>sludge_retent_time</t>
+  </si>
+  <si>
+    <t>sodium</t>
+  </si>
+  <si>
+    <t>soluble_inorg_mat</t>
+  </si>
+  <si>
+    <t>soluble_org_mat</t>
+  </si>
+  <si>
+    <t>source_material_id</t>
+  </si>
+  <si>
+    <t>subspecf_gen_lin</t>
+  </si>
+  <si>
+    <t>suspend_solids</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>tertiary_treatment</t>
+  </si>
+  <si>
+    <t>tot_nitro</t>
+  </si>
+  <si>
+    <t>tot_phosphate</t>
+  </si>
+  <si>
+    <t>trophic_level</t>
+  </si>
+  <si>
+    <t>wastewater_type</t>
   </si>
 </sst>
 </file>
@@ -776,77 +1544,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:65">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:65">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1">
+    <row r="3" spans="1:65" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="4" customFormat="1">
+    <row r="4" spans="1:65" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="5" customFormat="1">
+    <row r="5" spans="1:65" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:65">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:65">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:65">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:65">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:65">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:65">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:65">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:65">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:65">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:65">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -897,6 +1665,150 @@
       </c>
       <c r="Q15" s="7" t="s">
         <v>30</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM15" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.wastewater.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.wastewater.4.0.xlsx
@@ -773,11 +773,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Identifier for the physical specimen. Use format: "[&lt;institution-code&gt;:[&lt;collection-code&gt;:]]&lt;specimen_id&gt;", eg, "UAM:Mamm:52179". Intended as a reference to the physical specimen that remains after it was analyzed. If the specimen was destroyed in the process of analysis, electronic images (e-vouchers) are an adequate substitute for a physical voucher specimen. Ideally the specimens will be deposited in a curated museum, herbarium, or frozen tissue collection, but often they will remain in a personal or laboratory collection for some time before they are deposited in a curated collection. There are three forms of specimen_voucher qualifiers. If the text of the qualifier includes one or more colons it is a 'structured voucher'. Structured vouchers include institution-codes (and optional collection-codes) taken from a controlled vocabulary maintained by the INSDC that denotes the museum or herbarium collection where the specimen resides, please visit the INSDC website, http://www.insdc.org/controlled-vocabulary-specimenvoucher-qualifier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
         </r>
       </text>
     </comment>
-    <comment ref="BG15" authorId="0">
+    <comment ref="BH15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -790,7 +803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH15" authorId="0">
+    <comment ref="BI15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -803,7 +816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI15" authorId="0">
+    <comment ref="BJ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -816,7 +829,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ15" authorId="0">
+    <comment ref="BK15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -829,7 +842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK15" authorId="0">
+    <comment ref="BL15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -842,7 +855,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL15" authorId="0">
+    <comment ref="BM15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -855,7 +868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM15" authorId="0">
+    <comment ref="BN15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -873,7 +886,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIMARKS: specimen, wastewater; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -1100,6 +1113,9 @@
   </si>
   <si>
     <t>source_material_id</t>
+  </si>
+  <si>
+    <t>specimen_voucher</t>
   </si>
   <si>
     <t>subspecf_gen_lin</t>
@@ -1544,77 +1560,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:66">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:65">
+    <row r="2" spans="1:66">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="3" customFormat="1">
+    <row r="3" spans="1:66" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:65" s="4" customFormat="1">
+    <row r="4" spans="1:66" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:65" s="5" customFormat="1">
+    <row r="5" spans="1:66" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:65">
+    <row r="6" spans="1:66">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:65">
+    <row r="7" spans="1:66">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:65">
+    <row r="8" spans="1:66">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:65">
+    <row r="9" spans="1:66">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:65">
+    <row r="10" spans="1:66">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:65">
+    <row r="11" spans="1:66">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:65">
+    <row r="12" spans="1:66">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:65">
+    <row r="13" spans="1:66">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:65">
+    <row r="14" spans="1:66">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:65">
+    <row r="15" spans="1:66">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1809,6 +1825,9 @@
       </c>
       <c r="BM15" s="8" t="s">
         <v>78</v>
+      </c>
+      <c r="BN15" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
